--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value898.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value898.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.957584580308776</v>
+        <v>2.297606706619263</v>
       </c>
       <c r="B1">
-        <v>2.412398939550013</v>
+        <v>2.63785457611084</v>
       </c>
       <c r="C1">
-        <v>2.525043669721622</v>
+        <v>1.560036301612854</v>
       </c>
       <c r="D1">
-        <v>3.17017754340202</v>
+        <v>1.262665271759033</v>
       </c>
       <c r="E1">
-        <v>1.589707704724828</v>
+        <v>1.174902677536011</v>
       </c>
     </row>
   </sheetData>
